--- a/mapping/ChemCatChem_MOP.xlsx
+++ b/mapping/ChemCatChem_MOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -196,10 +196,58 @@
     <t>{'label': 'acylation'}</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['ChEBI defines this too specifically (SJC)']</t>
+    <t>['A molecular process that results in the formation of an epoxide.', 'A cyclisation that results in the formation of an epoxide.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an amino group.', 'Formation of a covalent bond between a substrate and an amino group.']</t>
+  </si>
+  <si>
+    <t>['A molecular process where two or more unsaturated molecules or parts of the same molecule combine to form a cyclic adduct in which there is a net reduction of bond multiplicity.', 'A molecular process where two or more unsaturated molecules or parts of the same molecule combine to form a cyclic adduct in which there is a net reduction of bond multiplicity.']</t>
+  </si>
+  <si>
+    <t>['Formation of a ring in a molecule from a chain by formation of a new bond.', 'Formation of a ring in a molecule from a chain by formation of a new bond.']</t>
+  </si>
+  <si>
+    <t>["A molecular process involving the exchange of a bond or bonds between similar interacting chemical species so that the bonding affiliations in the products are identical or closely similar to those in the reactants. An example is where RCH=CHR reacts with R'CH=CHR' to form 2RCH=CHR'."]</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and a carbonyl group.']</t>
+  </si>
+  <si>
+    <t>['A process where an electron is transferred from one molecular entity or part of a molecular entity to a different molecular entity or part of the same molecular entity.']</t>
+  </si>
+  <si>
+    <t>['A molecular entity possessing an unpaired electron.', 'A molecular entity possessing an unpaired electron.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an aryl group.', 'Formation of a covalent bond between a substrate and an aryl group.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and a hydroxy group.']</t>
+  </si>
+  <si>
+    <t>['Catalysis of a reaction where the catalyst either donates a hydron or accepts an electron pair.', 'Catalysis of a reaction where the catalyst either donates a hydron or accepts an electron pair.']</t>
+  </si>
+  <si>
+    <t>['A compound having the structure RC#N; thus a C-substituted derivative of hydrocyanic acid, HC#N. In systematic nomenclature, the suffix nitrile denotes the triply bound #N atom, not the carbon atom attached to it.']</t>
+  </si>
+  <si>
+    <t>['Acyclic and cyclic hydrocarbons having one or more carbon-carbon double bonds, apart from the formal ones in aromatic compounds. The class olefins subsumes alkenes and cycloalkenes and the corresponding polyenes.']</t>
+  </si>
+  <si>
+    <t>['Any cyclic ether in which the oxygen atom forms part of a 3-membered ring.']</t>
+  </si>
+  <si>
+    <t>['An alcoholysis reaction of an ester which produces a different alcohol and a different ester.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an allyl group.', 'Formation of a covalent bond between a substrate and an allyl group.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and a methyl group.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an acyl group.', 'Formation of a covalent bond between a substrate and an acyl group.']</t>
   </si>
 </sst>
 </file>
@@ -630,7 +678,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -650,7 +698,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -670,7 +718,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,7 +738,7 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -710,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -730,7 +778,7 @@
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -750,7 +798,7 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -770,7 +818,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -790,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -810,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -830,7 +878,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -850,7 +898,7 @@
         <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -870,7 +918,7 @@
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -890,7 +938,7 @@
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -910,7 +958,7 @@
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -930,7 +978,7 @@
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -950,7 +998,7 @@
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
